--- a/state_fact_sheets/data/modified/il_rlps_ghgrp_naics_2023.xlsx
+++ b/state_fact_sheets/data/modified/il_rlps_ghgrp_naics_2023.xlsx
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D101">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D125">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D129">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D130">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D147">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D193">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D226">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D265">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D267">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Other Manufacturing</t>
+          <t>Other Chemicals Manufacturing</t>
         </is>
       </c>
       <c r="D268">
